--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #09 SEPTIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE8FD3-01B3-4153-8BAE-60D9FEDCA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCAD72E-9653-4E5A-AEC6-A3B368A9F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="495" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="73">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>30-Ago-22--3-Sept-22--4-Sept-22</t>
+  </si>
+  <si>
+    <t>4-Sept-22--6-Sept-22--8-Sept-22</t>
+  </si>
+  <si>
+    <t>8-Sept-22--11-Sept-22</t>
+  </si>
+  <si>
+    <t>11-sept-22--12-Sept-22</t>
+  </si>
+  <si>
+    <t>13-Sept-22--14-Sept-22</t>
   </si>
 </sst>
 </file>
@@ -679,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,18 +878,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15377,8 +15377,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15459,7 +15459,7 @@
       <c r="E4" s="18">
         <v>2345</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="65">
         <v>44803</v>
       </c>
       <c r="G4" s="20">
@@ -15485,7 +15485,7 @@
       <c r="E5" s="23">
         <v>2748</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="24">
         <v>44805</v>
       </c>
       <c r="G5" s="25">
@@ -15511,7 +15511,7 @@
       <c r="E6" s="23">
         <v>11989</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="24">
         <v>44806</v>
       </c>
       <c r="G6" s="25">
@@ -15537,7 +15537,7 @@
       <c r="E7" s="23">
         <v>2264</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="24">
         <v>44806</v>
       </c>
       <c r="G7" s="25">
@@ -15563,7 +15563,7 @@
       <c r="E8" s="23">
         <v>10360</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="24">
         <v>44807</v>
       </c>
       <c r="G8" s="25">
@@ -15589,7 +15589,7 @@
       <c r="E9" s="23">
         <v>2360</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="24">
         <v>44806</v>
       </c>
       <c r="G9" s="25">
@@ -15615,7 +15615,7 @@
       <c r="E10" s="23">
         <v>5172</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="24">
         <v>44806</v>
       </c>
       <c r="G10" s="25">
@@ -15641,7 +15641,7 @@
       <c r="E11" s="23">
         <v>6448</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="24">
         <v>44806</v>
       </c>
       <c r="G11" s="25">
@@ -15667,7 +15667,7 @@
       <c r="E12" s="23">
         <v>2149</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="64">
         <v>44807</v>
       </c>
       <c r="G12" s="25">
@@ -15693,7 +15693,7 @@
       <c r="E13" s="23">
         <v>6070</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="24">
         <v>44807</v>
       </c>
       <c r="G13" s="25">
@@ -15719,7 +15719,7 @@
       <c r="E14" s="23">
         <v>2608</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="24">
         <v>44808</v>
       </c>
       <c r="G14" s="25">
@@ -15745,7 +15745,7 @@
       <c r="E15" s="23">
         <v>5159</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="24">
         <v>44807</v>
       </c>
       <c r="G15" s="25">
@@ -15771,7 +15771,7 @@
       <c r="E16" s="23">
         <v>2891</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="24">
         <v>44807</v>
       </c>
       <c r="G16" s="25">
@@ -15797,7 +15797,7 @@
       <c r="E17" s="23">
         <v>2286</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="64">
         <v>44808</v>
       </c>
       <c r="G17" s="25">
@@ -15823,7 +15823,7 @@
       <c r="E18" s="23">
         <v>434</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="24">
         <v>44807</v>
       </c>
       <c r="G18" s="25">
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>44807</v>
       </c>
@@ -15849,16 +15849,16 @@
       <c r="E19" s="23">
         <v>19433</v>
       </c>
-      <c r="F19" s="82">
-        <v>44808</v>
+      <c r="F19" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="G19" s="25">
-        <f>5000</f>
-        <v>5000</v>
+        <f>5000+5433+9000</f>
+        <v>19433</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
-        <v>14433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15876,7 +15876,7 @@
       <c r="E20" s="23">
         <v>7366</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="24">
         <v>44808</v>
       </c>
       <c r="G20" s="25">
@@ -15902,7 +15902,7 @@
       <c r="E21" s="23">
         <v>2689</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="24">
         <v>44808</v>
       </c>
       <c r="G21" s="25">
@@ -15928,7 +15928,7 @@
       <c r="E22" s="23">
         <v>1351</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="24">
         <v>44808</v>
       </c>
       <c r="G22" s="25">
@@ -15954,7 +15954,7 @@
       <c r="E23" s="23">
         <v>1904</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="24">
         <v>44809</v>
       </c>
       <c r="G23" s="25">
@@ -15980,11 +15980,15 @@
       <c r="E24" s="23">
         <v>6469</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="64">
+        <v>44810</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6469</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>6469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -16002,7 +16006,7 @@
       <c r="E25" s="23">
         <v>16203</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="24">
         <v>44809</v>
       </c>
       <c r="G25" s="25">
@@ -16028,587 +16032,930 @@
       <c r="E26" s="23">
         <v>3761</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="64">
+        <v>44812</v>
+      </c>
+      <c r="G26" s="25">
+        <v>3761</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>3761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44810</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="23">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44812</v>
+      </c>
+      <c r="G27" s="25">
+        <v>4500</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>44810</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>509</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="23">
+        <v>4556</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="25">
+        <v>4556</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44810</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="23">
+        <v>7301</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44811</v>
+      </c>
+      <c r="G29" s="25">
+        <v>7301</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44811</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>511</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="23">
+        <v>5335</v>
+      </c>
+      <c r="F30" s="64">
+        <v>44812</v>
+      </c>
+      <c r="G30" s="25">
+        <v>5335</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44812</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2932</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="25">
+        <v>2932</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44812</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>513</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="23">
+        <v>15575</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="25">
+        <f>4000+11575</f>
+        <v>15575</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44812</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="82"/>
+      <c r="D33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="23">
+        <v>259</v>
+      </c>
+      <c r="F33" s="64"/>
       <c r="G33" s="25"/>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44812</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="23">
+        <v>4860</v>
+      </c>
+      <c r="F34" s="64">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="25">
+        <v>4860</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44812</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="23">
+        <v>4367</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="25">
+        <v>4367</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44813</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="23">
+        <v>5283</v>
+      </c>
+      <c r="F36" s="64">
+        <v>44814</v>
+      </c>
+      <c r="G36" s="25">
+        <v>5283</v>
+      </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>44813</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="23">
+        <v>3971</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44814</v>
+      </c>
+      <c r="G37" s="25">
+        <v>3971</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44813</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>519</v>
       </c>
       <c r="C38" s="29"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="23">
+        <v>6182</v>
+      </c>
+      <c r="F38" s="64">
+        <v>44814</v>
+      </c>
+      <c r="G38" s="25">
+        <v>6182</v>
+      </c>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>44813</v>
+      </c>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="C39" s="29"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="23">
+        <v>14390</v>
+      </c>
+      <c r="F39" s="64">
+        <v>44815</v>
+      </c>
+      <c r="G39" s="25">
+        <v>14390</v>
+      </c>
       <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>44813</v>
+      </c>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>521</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="23">
+        <v>4570</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44814</v>
+      </c>
+      <c r="G40" s="25">
+        <v>4570</v>
+      </c>
       <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>44814</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>522</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2836</v>
+      </c>
+      <c r="F41" s="24">
+        <v>44815</v>
+      </c>
+      <c r="G41" s="25">
+        <v>2836</v>
+      </c>
       <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44814</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>523</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="23">
+        <v>3281</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44815</v>
+      </c>
+      <c r="G42" s="25">
+        <v>3281</v>
+      </c>
       <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>44814</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="23">
+        <v>5951</v>
+      </c>
+      <c r="F43" s="64">
+        <v>44815</v>
+      </c>
+      <c r="G43" s="25">
+        <v>5951</v>
+      </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44814</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="23">
+        <v>7314</v>
+      </c>
+      <c r="F44" s="64">
+        <v>44815</v>
+      </c>
+      <c r="G44" s="25">
+        <v>7314</v>
+      </c>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>44814</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>526</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="25"/>
+      <c r="D45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="23">
+        <v>1288</v>
+      </c>
+      <c r="F45" s="24">
+        <v>44815</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1288</v>
+      </c>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44815</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>527</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="23">
+        <v>4626</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44816</v>
+      </c>
+      <c r="G46" s="25">
+        <v>4626</v>
+      </c>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44815</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="23">
+        <v>17022</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="25">
+        <f>7000+10022</f>
+        <v>17022</v>
+      </c>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44815</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="23">
+        <v>6544</v>
+      </c>
+      <c r="F48" s="24">
+        <v>44816</v>
+      </c>
+      <c r="G48" s="25">
+        <v>6544</v>
+      </c>
       <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44815</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23">
+        <v>11161</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="25">
+        <f>5000+6161</f>
+        <v>11161</v>
+      </c>
       <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44815</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>531</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="23">
+        <v>7700</v>
+      </c>
+      <c r="F50" s="24">
+        <v>44815</v>
+      </c>
+      <c r="G50" s="25">
+        <v>1054</v>
+      </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44816</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>532</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="25"/>
+      <c r="D51" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="23">
+        <v>1735</v>
+      </c>
+      <c r="F51" s="24">
+        <v>44817</v>
+      </c>
+      <c r="G51" s="25">
+        <v>1735</v>
+      </c>
       <c r="H51" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44816</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="23">
+        <v>6116</v>
+      </c>
+      <c r="F52" s="24">
+        <v>44817</v>
+      </c>
+      <c r="G52" s="25">
+        <v>6116</v>
+      </c>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>44816</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>534</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="25"/>
+      <c r="D53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="23">
+        <v>8003</v>
+      </c>
+      <c r="F53" s="64">
+        <v>44817</v>
+      </c>
+      <c r="G53" s="25">
+        <v>8003</v>
+      </c>
       <c r="H53" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44817</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="81"/>
+      <c r="D54" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="23">
+        <v>3966</v>
+      </c>
+      <c r="F54" s="24"/>
       <c r="G54" s="25"/>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="66">
+        <v>44817</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>536</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="68">
+        <v>13614</v>
+      </c>
+      <c r="F55" s="64">
+        <v>44818</v>
+      </c>
+      <c r="G55" s="69">
+        <v>13614</v>
+      </c>
       <c r="H55" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44817</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>537</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="81"/>
+      <c r="D56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="23">
+        <v>11463</v>
+      </c>
+      <c r="F56" s="24"/>
       <c r="G56" s="25"/>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11463</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44817</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F57" s="24">
+        <v>44818</v>
+      </c>
+      <c r="G57" s="25">
+        <v>6048</v>
+      </c>
       <c r="H57" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44817</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="81"/>
+      <c r="D58" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="23">
+        <v>10046</v>
+      </c>
+      <c r="F58" s="24"/>
       <c r="G58" s="25"/>
       <c r="H58" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44818</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="25"/>
+      <c r="D59" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1657</v>
+      </c>
+      <c r="F59" s="64">
+        <v>44818</v>
+      </c>
+      <c r="G59" s="25">
+        <v>1657</v>
+      </c>
       <c r="H59" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44818</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>541</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="25"/>
+      <c r="D60" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="23">
+        <v>18142</v>
+      </c>
+      <c r="F60" s="24">
+        <v>44818</v>
+      </c>
+      <c r="G60" s="25">
+        <v>5000</v>
+      </c>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44818</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>542</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="81"/>
+      <c r="D61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="23">
+        <v>6031</v>
+      </c>
+      <c r="F61" s="24"/>
       <c r="G61" s="25"/>
       <c r="H61" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44818</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>543</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="82"/>
+      <c r="D62" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="23">
+        <v>7613</v>
+      </c>
+      <c r="F62" s="64"/>
       <c r="G62" s="25"/>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -16620,7 +16967,7 @@
       <c r="C63" s="29"/>
       <c r="D63" s="27"/>
       <c r="E63" s="23"/>
-      <c r="F63" s="82"/>
+      <c r="F63" s="64"/>
       <c r="G63" s="25"/>
       <c r="H63" s="21">
         <f t="shared" si="0"/>
@@ -16636,7 +16983,7 @@
       <c r="C64" s="29"/>
       <c r="D64" s="27"/>
       <c r="E64" s="23"/>
-      <c r="F64" s="81"/>
+      <c r="F64" s="24"/>
       <c r="G64" s="25"/>
       <c r="H64" s="21">
         <f t="shared" si="0"/>
@@ -16652,7 +16999,7 @@
       <c r="C65" s="29"/>
       <c r="D65" s="27"/>
       <c r="E65" s="23"/>
-      <c r="F65" s="81"/>
+      <c r="F65" s="24"/>
       <c r="G65" s="25"/>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
@@ -16668,7 +17015,7 @@
       <c r="C66" s="29"/>
       <c r="D66" s="27"/>
       <c r="E66" s="23"/>
-      <c r="F66" s="82"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="25"/>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
@@ -16684,7 +17031,7 @@
       <c r="C67" s="29"/>
       <c r="D67" s="27"/>
       <c r="E67" s="23"/>
-      <c r="F67" s="82"/>
+      <c r="F67" s="64"/>
       <c r="G67" s="25"/>
       <c r="H67" s="21">
         <f t="shared" si="0"/>
@@ -16700,7 +17047,7 @@
       <c r="C68" s="29"/>
       <c r="D68" s="27"/>
       <c r="E68" s="23"/>
-      <c r="F68" s="81"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="25"/>
       <c r="H68" s="21">
         <f t="shared" si="0"/>
@@ -16716,7 +17063,7 @@
       <c r="C69" s="29"/>
       <c r="D69" s="27"/>
       <c r="E69" s="23"/>
-      <c r="F69" s="82"/>
+      <c r="F69" s="64"/>
       <c r="G69" s="25"/>
       <c r="H69" s="21">
         <f t="shared" si="0"/>
@@ -16732,7 +17079,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="27"/>
       <c r="E70" s="23"/>
-      <c r="F70" s="81"/>
+      <c r="F70" s="24"/>
       <c r="G70" s="25"/>
       <c r="H70" s="21">
         <f t="shared" si="0"/>
@@ -16748,7 +17095,7 @@
       <c r="C71" s="29"/>
       <c r="D71" s="27"/>
       <c r="E71" s="23"/>
-      <c r="F71" s="81"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="25"/>
       <c r="H71" s="21">
         <f t="shared" si="0"/>
@@ -16764,7 +17111,7 @@
       <c r="C72" s="29"/>
       <c r="D72" s="27"/>
       <c r="E72" s="23"/>
-      <c r="F72" s="81"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="25"/>
       <c r="H72" s="21">
         <f t="shared" si="0"/>
@@ -16780,7 +17127,7 @@
       <c r="C73" s="29"/>
       <c r="D73" s="27"/>
       <c r="E73" s="23"/>
-      <c r="F73" s="81"/>
+      <c r="F73" s="24"/>
       <c r="G73" s="25"/>
       <c r="H73" s="21">
         <f t="shared" si="0"/>
@@ -16796,7 +17143,7 @@
       <c r="C74" s="29"/>
       <c r="D74" s="27"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="81"/>
+      <c r="F74" s="24"/>
       <c r="G74" s="25"/>
       <c r="H74" s="21">
         <f t="shared" si="0"/>
@@ -16812,7 +17159,7 @@
       <c r="C75" s="29"/>
       <c r="D75" s="27"/>
       <c r="E75" s="23"/>
-      <c r="F75" s="81"/>
+      <c r="F75" s="24"/>
       <c r="G75" s="25"/>
       <c r="H75" s="21">
         <f t="shared" si="0"/>
@@ -16828,7 +17175,7 @@
       <c r="C76" s="29"/>
       <c r="D76" s="27"/>
       <c r="E76" s="23"/>
-      <c r="F76" s="82"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="25"/>
       <c r="H76" s="21">
         <f t="shared" si="0"/>
@@ -16844,7 +17191,7 @@
       <c r="C77" s="29"/>
       <c r="D77" s="27"/>
       <c r="E77" s="23"/>
-      <c r="F77" s="81"/>
+      <c r="F77" s="24"/>
       <c r="G77" s="25"/>
       <c r="H77" s="21">
         <f t="shared" si="0"/>
@@ -16860,7 +17207,7 @@
       <c r="C78" s="29"/>
       <c r="D78" s="27"/>
       <c r="E78" s="23"/>
-      <c r="F78" s="81"/>
+      <c r="F78" s="24"/>
       <c r="G78" s="25"/>
       <c r="H78" s="21">
         <f t="shared" si="0"/>
@@ -16876,7 +17223,7 @@
       <c r="C79" s="29"/>
       <c r="D79" s="27"/>
       <c r="E79" s="23"/>
-      <c r="F79" s="82"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="25"/>
       <c r="H79" s="21">
         <f t="shared" si="0"/>
@@ -16892,7 +17239,7 @@
       <c r="C80" s="29"/>
       <c r="D80" s="27"/>
       <c r="E80" s="23"/>
-      <c r="F80" s="83"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="32"/>
       <c r="H80" s="21">
         <f t="shared" si="0"/>
@@ -16908,7 +17255,7 @@
       <c r="C81" s="29"/>
       <c r="D81" s="27"/>
       <c r="E81" s="23"/>
-      <c r="F81" s="81"/>
+      <c r="F81" s="24"/>
       <c r="G81" s="25"/>
       <c r="H81" s="21">
         <f t="shared" si="0"/>
@@ -16924,7 +17271,7 @@
       <c r="C82" s="29"/>
       <c r="D82" s="27"/>
       <c r="E82" s="23"/>
-      <c r="F82" s="81"/>
+      <c r="F82" s="24"/>
       <c r="G82" s="25"/>
       <c r="H82" s="21">
         <f t="shared" si="0"/>
@@ -16940,7 +17287,7 @@
       <c r="C83" s="29"/>
       <c r="D83" s="27"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="82"/>
+      <c r="F83" s="64"/>
       <c r="G83" s="25"/>
       <c r="H83" s="21">
         <f t="shared" si="0"/>
@@ -16956,7 +17303,7 @@
       <c r="C84" s="29"/>
       <c r="D84" s="27"/>
       <c r="E84" s="23"/>
-      <c r="F84" s="81"/>
+      <c r="F84" s="24"/>
       <c r="G84" s="25"/>
       <c r="H84" s="21">
         <f t="shared" si="0"/>
@@ -16972,7 +17319,7 @@
       <c r="C85" s="29"/>
       <c r="D85" s="27"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="81"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="25"/>
       <c r="H85" s="21">
         <f t="shared" si="0"/>
@@ -16988,7 +17335,7 @@
       <c r="C86" s="29"/>
       <c r="D86" s="27"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="83"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="32"/>
       <c r="H86" s="21">
         <f t="shared" si="0"/>
@@ -17004,7 +17351,7 @@
       <c r="C87" s="29"/>
       <c r="D87" s="27"/>
       <c r="E87" s="23"/>
-      <c r="F87" s="81"/>
+      <c r="F87" s="24"/>
       <c r="G87" s="25"/>
       <c r="H87" s="21">
         <f t="shared" si="0"/>
@@ -17020,7 +17367,7 @@
       <c r="C88" s="29"/>
       <c r="D88" s="27"/>
       <c r="E88" s="23"/>
-      <c r="F88" s="81"/>
+      <c r="F88" s="24"/>
       <c r="G88" s="25"/>
       <c r="H88" s="21">
         <f t="shared" si="0"/>
@@ -17036,7 +17383,7 @@
       <c r="C89" s="29"/>
       <c r="D89" s="27"/>
       <c r="E89" s="23"/>
-      <c r="F89" s="83"/>
+      <c r="F89" s="31"/>
       <c r="G89" s="32"/>
       <c r="H89" s="21">
         <f t="shared" si="0"/>
@@ -17052,7 +17399,7 @@
       <c r="C90" s="29"/>
       <c r="D90" s="27"/>
       <c r="E90" s="23"/>
-      <c r="F90" s="83"/>
+      <c r="F90" s="31"/>
       <c r="G90" s="32"/>
       <c r="H90" s="21">
         <f t="shared" si="0"/>
@@ -17068,7 +17415,7 @@
       <c r="C91" s="29"/>
       <c r="D91" s="27"/>
       <c r="E91" s="23"/>
-      <c r="F91" s="83"/>
+      <c r="F91" s="31"/>
       <c r="G91" s="32"/>
       <c r="H91" s="21">
         <f t="shared" si="0"/>
@@ -17110,16 +17457,16 @@
       <c r="D94" s="2"/>
       <c r="E94" s="45">
         <f>SUM(E4:E93)</f>
-        <v>124459</v>
+        <v>370697</v>
       </c>
       <c r="F94" s="45"/>
       <c r="G94" s="45">
         <f>SUM(G4:G93)</f>
-        <v>99796</v>
+        <v>311531</v>
       </c>
       <c r="H94" s="46">
         <f>SUM(H4:H93)</f>
-        <v>24663</v>
+        <v>59166</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -17163,7 +17510,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="76">
         <f>E94-G94</f>
-        <v>24663</v>
+        <v>59166</v>
       </c>
       <c r="F98" s="77"/>
       <c r="G98" s="78"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #09 SEPTIEMBRE 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #09 SEPTIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCAD72E-9653-4E5A-AEC6-A3B368A9F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="REMISIONES  SEPTIEMBRE 2022    " sheetId="9" r:id="rId9"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="80">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -310,11 +309,32 @@
   <si>
     <t>13-Sept-22--14-Sept-22</t>
   </si>
+  <si>
+    <t>14-Sept-22--15-Sept-22</t>
+  </si>
+  <si>
+    <t>15-Sept-22--17-Sept-22</t>
+  </si>
+  <si>
+    <t>11-Sept-22--18-Sept-22</t>
+  </si>
+  <si>
+    <t>17-Sept-22--18-Sept-22</t>
+  </si>
+  <si>
+    <t>18-Sept-22---19-Sept-22</t>
+  </si>
+  <si>
+    <t>18-Sept-22--20-Sept-22</t>
+  </si>
+  <si>
+    <t>20-Sept-22--21-Sept-22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -449,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,6 +906,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2167,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3100,7 +3127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12324C3-E52A-43C5-A55E-6EFA476FD57F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3112,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
@@ -4322,7 +4349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -5454,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6955,7 +6982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -8475,7 +8502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -10453,7 +10480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -12759,17 +12786,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14436,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>44794</v>
       </c>
@@ -14462,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>44795</v>
       </c>
@@ -14488,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>44796</v>
       </c>
@@ -14514,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>44797</v>
       </c>
@@ -14540,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>44797</v>
       </c>
@@ -14567,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>44797</v>
       </c>
@@ -14593,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>44797</v>
       </c>
@@ -14619,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>44797</v>
       </c>
@@ -14645,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>44798</v>
       </c>
@@ -14671,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>44798</v>
       </c>
@@ -14697,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>44798</v>
       </c>
@@ -14723,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>44798</v>
       </c>
@@ -14750,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>44799</v>
       </c>
@@ -14776,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>44799</v>
       </c>
@@ -14802,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>44799</v>
       </c>
@@ -14829,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>44799</v>
       </c>
@@ -14855,6 +14882,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I80" s="80"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
@@ -15012,6 +15040,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I86" s="80"/>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
@@ -15371,14 +15400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16215,11 +16244,15 @@
       <c r="E33" s="23">
         <v>259</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="64">
+        <v>44821</v>
+      </c>
+      <c r="G33" s="25">
+        <v>259</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -16640,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>44815</v>
       </c>
@@ -16655,15 +16688,16 @@
       <c r="E50" s="23">
         <v>7700</v>
       </c>
-      <c r="F50" s="24">
-        <v>44815</v>
+      <c r="F50" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="G50" s="25">
-        <v>1054</v>
+        <f>1054+6646</f>
+        <v>7700</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>6646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16759,11 +16793,15 @@
       <c r="E54" s="23">
         <v>3966</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="24">
+        <v>44819</v>
+      </c>
+      <c r="G54" s="25">
+        <v>3966</v>
+      </c>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>3966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -16792,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>44817</v>
       </c>
@@ -16807,11 +16845,16 @@
       <c r="E56" s="23">
         <v>11463</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="25">
+        <f>6000+5463</f>
+        <v>11463</v>
+      </c>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>11463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16855,11 +16898,15 @@
       <c r="E58" s="23">
         <v>10046</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="F58" s="24">
+        <v>44822</v>
+      </c>
+      <c r="G58" s="25">
+        <v>10046</v>
+      </c>
       <c r="H58" s="21">
         <f t="shared" si="0"/>
-        <v>10046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -16888,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>44818</v>
       </c>
@@ -16903,15 +16950,16 @@
       <c r="E60" s="23">
         <v>18142</v>
       </c>
-      <c r="F60" s="24">
-        <v>44818</v>
+      <c r="F60" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="G60" s="25">
-        <v>5000</v>
+        <f>5000+13142</f>
+        <v>18142</v>
       </c>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
-        <v>13142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16929,11 +16977,15 @@
       <c r="E61" s="23">
         <v>6031</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
+      <c r="F61" s="24">
+        <v>44819</v>
+      </c>
+      <c r="G61" s="25">
+        <v>6031</v>
+      </c>
       <c r="H61" s="21">
         <f t="shared" si="0"/>
-        <v>6031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -16951,427 +17003,664 @@
       <c r="E62" s="23">
         <v>7613</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="25"/>
+      <c r="F62" s="64">
+        <v>44820</v>
+      </c>
+      <c r="G62" s="25">
+        <v>7613</v>
+      </c>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
-        <v>7613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14">
+        <v>44819</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="25"/>
+      <c r="D63" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="23">
+        <v>9834</v>
+      </c>
+      <c r="F63" s="64">
+        <v>44820</v>
+      </c>
+      <c r="G63" s="25">
+        <v>9834</v>
+      </c>
       <c r="H63" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44819</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
+      <c r="D64" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="23">
+        <v>3568</v>
+      </c>
+      <c r="F64" s="24">
+        <v>44821</v>
+      </c>
+      <c r="G64" s="25">
+        <v>3568</v>
+      </c>
       <c r="H64" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+    <row r="65" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <v>44819</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
+      <c r="D65" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="23">
+        <v>17180</v>
+      </c>
+      <c r="F65" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="25">
+        <f>7600+9580</f>
+        <v>17180</v>
+      </c>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="26">
+        <v>44819</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>547</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="25"/>
+      <c r="D66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="23">
+        <v>6647</v>
+      </c>
+      <c r="F66" s="64">
+        <v>44820</v>
+      </c>
+      <c r="G66" s="25">
+        <v>6647</v>
+      </c>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="26">
+        <v>44819</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>548</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="25"/>
+      <c r="D67" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="23">
+        <v>10089</v>
+      </c>
+      <c r="F67" s="64">
+        <v>44822</v>
+      </c>
+      <c r="G67" s="25">
+        <v>10089</v>
+      </c>
       <c r="H67" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+    <row r="68" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26">
+        <v>44820</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>549</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="23">
+        <v>3306</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="25">
+        <f>2500+806</f>
+        <v>3306</v>
+      </c>
       <c r="H68" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="26">
+        <v>44820</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="23">
+        <v>235</v>
+      </c>
+      <c r="F69" s="64">
+        <v>44820</v>
+      </c>
+      <c r="G69" s="25">
+        <v>235</v>
+      </c>
       <c r="H69" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="26">
+        <v>44820</v>
+      </c>
       <c r="B70" s="15">
         <f t="shared" ref="B70:B91" si="2">B69+1</f>
         <v>551</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="23">
+        <v>5581</v>
+      </c>
+      <c r="F70" s="24">
+        <v>44821</v>
+      </c>
+      <c r="G70" s="25">
+        <v>5581</v>
+      </c>
       <c r="H70" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
+        <v>44821</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>552</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="23">
+        <v>5836</v>
+      </c>
+      <c r="F71" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="25">
+        <f>4000+1836</f>
+        <v>5836</v>
+      </c>
       <c r="H71" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="26">
+        <v>44821</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>553</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
+      <c r="D72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="23">
+        <v>17735</v>
+      </c>
+      <c r="F72" s="24">
+        <v>44821</v>
+      </c>
+      <c r="G72" s="25">
+        <v>17735</v>
+      </c>
       <c r="H72" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="26">
+        <v>44821</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>554</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="23">
+        <v>4384</v>
+      </c>
+      <c r="F73" s="24">
+        <v>44822</v>
+      </c>
+      <c r="G73" s="25">
+        <v>4384</v>
+      </c>
       <c r="H73" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="26">
+        <v>44821</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>555</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="D74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="23">
+        <v>3848</v>
+      </c>
+      <c r="F74" s="24">
+        <v>44822</v>
+      </c>
+      <c r="G74" s="25">
+        <v>3848</v>
+      </c>
       <c r="H74" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="26">
+        <v>44821</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="23">
+        <v>8655</v>
+      </c>
+      <c r="F75" s="24">
+        <v>44824</v>
+      </c>
+      <c r="G75" s="25">
+        <v>8655</v>
+      </c>
       <c r="H75" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="26">
+        <v>44822</v>
+      </c>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
         <v>557</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="23">
+        <v>6575</v>
+      </c>
       <c r="F76" s="64"/>
       <c r="G76" s="25"/>
       <c r="H76" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="26">
+        <v>44822</v>
+      </c>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
         <v>558</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
+      <c r="D77" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="23">
+        <v>4902</v>
+      </c>
+      <c r="F77" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="25">
+        <f>2700+2202</f>
+        <v>4902</v>
+      </c>
       <c r="H77" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>44822</v>
+      </c>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
         <v>559</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="23">
+        <v>13845</v>
+      </c>
+      <c r="F78" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" s="25">
+        <f>13000+845</f>
+        <v>13845</v>
+      </c>
       <c r="H78" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="26">
+        <v>44822</v>
+      </c>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="23"/>
+      <c r="D79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="23">
+        <v>12349</v>
+      </c>
       <c r="F79" s="64"/>
       <c r="G79" s="25"/>
       <c r="H79" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="26">
+        <v>44822</v>
+      </c>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
         <v>561</v>
       </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="32"/>
+      <c r="D80" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="23">
+        <v>2709</v>
+      </c>
+      <c r="F80" s="24">
+        <v>44825</v>
+      </c>
+      <c r="G80" s="25">
+        <v>2709</v>
+      </c>
       <c r="H80" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="26">
+        <v>44824</v>
+      </c>
       <c r="B81" s="15">
         <f t="shared" si="2"/>
         <v>562</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="23">
+        <v>2258</v>
+      </c>
+      <c r="F81" s="24">
+        <v>44825</v>
+      </c>
+      <c r="G81" s="25">
+        <v>1600</v>
+      </c>
       <c r="H81" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="26">
+        <v>44824</v>
+      </c>
       <c r="B82" s="15">
         <f t="shared" si="2"/>
         <v>563</v>
       </c>
       <c r="C82" s="29"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="23">
+        <v>9058</v>
+      </c>
       <c r="F82" s="24"/>
       <c r="G82" s="25"/>
       <c r="H82" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="26">
+        <v>44824</v>
+      </c>
       <c r="B83" s="15">
         <f t="shared" si="2"/>
         <v>564</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="23">
+        <v>5882</v>
+      </c>
+      <c r="F83" s="64">
+        <v>44825</v>
+      </c>
+      <c r="G83" s="25">
+        <v>5882</v>
+      </c>
       <c r="H83" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="26">
+        <v>44824</v>
+      </c>
       <c r="B84" s="15">
         <f t="shared" si="2"/>
         <v>565</v>
       </c>
       <c r="C84" s="29"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="23"/>
+      <c r="D84" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="23">
+        <v>250</v>
+      </c>
       <c r="F84" s="24"/>
       <c r="G84" s="25"/>
       <c r="H84" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="A85" s="26">
+        <v>44825</v>
+      </c>
       <c r="B85" s="15">
         <f t="shared" si="2"/>
         <v>566</v>
       </c>
       <c r="C85" s="29"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="23"/>
+      <c r="D85" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="23">
+        <v>2218</v>
+      </c>
       <c r="F85" s="24"/>
       <c r="G85" s="25"/>
       <c r="H85" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="26">
+        <v>44825</v>
+      </c>
       <c r="B86" s="15">
         <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="C86" s="29"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="23">
+        <v>12549</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12549</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="26">
+        <v>44825</v>
+      </c>
       <c r="B87" s="15">
         <f t="shared" si="2"/>
         <v>568</v>
       </c>
       <c r="C87" s="29"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="23"/>
+      <c r="D87" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="23">
+        <v>1691</v>
+      </c>
       <c r="F87" s="24"/>
       <c r="G87" s="25"/>
       <c r="H87" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="26">
+        <v>44825</v>
+      </c>
       <c r="B88" s="15">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
       <c r="C88" s="29"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="23"/>
+      <c r="D88" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="23">
+        <v>6779</v>
+      </c>
       <c r="F88" s="24"/>
       <c r="G88" s="25"/>
       <c r="H88" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17383,8 +17672,8 @@
       <c r="C89" s="29"/>
       <c r="D89" s="27"/>
       <c r="E89" s="23"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="32"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
       <c r="H89" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17457,16 +17746,16 @@
       <c r="D94" s="2"/>
       <c r="E94" s="45">
         <f>SUM(E4:E93)</f>
-        <v>370697</v>
+        <v>548660</v>
       </c>
       <c r="F94" s="45"/>
       <c r="G94" s="45">
         <f>SUM(G4:G93)</f>
-        <v>311531</v>
+        <v>496533</v>
       </c>
       <c r="H94" s="46">
         <f>SUM(H4:H93)</f>
-        <v>59166</v>
+        <v>52127</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -17510,7 +17799,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="76">
         <f>E94-G94</f>
-        <v>59166</v>
+        <v>52127</v>
       </c>
       <c r="F98" s="77"/>
       <c r="G98" s="78"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="86">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -329,6 +329,24 @@
   </si>
   <si>
     <t>20-Sept-22--21-Sept-22</t>
+  </si>
+  <si>
+    <t>21-sept-22---22-Sept-22</t>
+  </si>
+  <si>
+    <t>22-Sept-22--23-Sept-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREMERIA </t>
+  </si>
+  <si>
+    <t>24-Sept-22--25-Sept-22</t>
+  </si>
+  <si>
+    <t>25-Sept-22--27-Sept-22</t>
+  </si>
+  <si>
+    <t>27-Sept-22----</t>
   </si>
 </sst>
 </file>
@@ -882,6 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,7 +925,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1827,13 +1845,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1880,13 +1898,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2220,25 +2238,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2986,12 +3004,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="76">
+      <c r="E45" s="77">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3007,11 +3025,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,25 +3183,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4208,12 +4226,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="76">
+      <c r="E55" s="77">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4229,11 +4247,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,25 +4393,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5340,12 +5358,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="76">
+      <c r="E52" s="77">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5361,11 +5379,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="79" t="s">
+      <c r="E54" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5507,25 +5525,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6841,12 +6859,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="76">
+      <c r="E63" s="77">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6862,11 +6880,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -7008,25 +7026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8360,12 +8378,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="76">
+      <c r="E57" s="77">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -8381,11 +8399,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8528,25 +8546,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10339,12 +10357,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="76">
+      <c r="E76" s="77">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10360,11 +10378,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="79" t="s">
+      <c r="E78" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10506,25 +10524,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12644,12 +12662,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="76">
+      <c r="E87" s="77">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="79"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -12665,11 +12683,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="79" t="s">
+      <c r="E89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -12815,25 +12833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14882,7 +14900,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I80" s="80"/>
+      <c r="I80" s="72"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
@@ -15040,7 +15058,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I86" s="80"/>
+      <c r="I86" s="72"/>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
@@ -15258,12 +15276,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="76">
+      <c r="E98" s="77">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="79"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -15279,11 +15297,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="79" t="s">
+      <c r="E100" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -15404,10 +15422,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15426,25 +15444,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15495,7 +15513,7 @@
         <v>2345</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H93" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H128" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -17203,7 +17221,7 @@
         <v>44820</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B91" si="2">B69+1</f>
+        <f t="shared" ref="B70:B126" si="2">B69+1</f>
         <v>551</v>
       </c>
       <c r="C70" s="29"/>
@@ -17370,11 +17388,15 @@
       <c r="E76" s="23">
         <v>6575</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="25"/>
+      <c r="F76" s="64">
+        <v>44826</v>
+      </c>
+      <c r="G76" s="25">
+        <v>6575</v>
+      </c>
       <c r="H76" s="21">
         <f t="shared" si="0"/>
-        <v>6575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -17431,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>44822</v>
       </c>
@@ -17446,11 +17468,16 @@
       <c r="E79" s="23">
         <v>12349</v>
       </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="25"/>
+      <c r="F79" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="25">
+        <f>8000+4349</f>
+        <v>12349</v>
+      </c>
       <c r="H79" s="21">
         <f t="shared" si="0"/>
-        <v>12349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17479,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>44824</v>
       </c>
@@ -17494,18 +17521,19 @@
       <c r="E81" s="23">
         <v>2258</v>
       </c>
-      <c r="F81" s="24">
-        <v>44825</v>
+      <c r="F81" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="G81" s="25">
-        <v>1600</v>
+        <f>1600+658</f>
+        <v>2258</v>
       </c>
       <c r="H81" s="21">
         <f t="shared" si="0"/>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>44824</v>
       </c>
@@ -17520,14 +17548,18 @@
       <c r="E82" s="23">
         <v>9058</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
+      <c r="F82" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G82" s="25">
+        <v>9058</v>
+      </c>
       <c r="H82" s="21">
         <f t="shared" si="0"/>
-        <v>9058</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>44824</v>
       </c>
@@ -17553,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>44824</v>
       </c>
@@ -17568,14 +17600,18 @@
       <c r="E84" s="23">
         <v>250</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
+      <c r="F84" s="24">
+        <v>44827</v>
+      </c>
+      <c r="G84" s="25">
+        <v>250</v>
+      </c>
       <c r="H84" s="21">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>44825</v>
       </c>
@@ -17590,14 +17626,18 @@
       <c r="E85" s="23">
         <v>2218</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
+      <c r="F85" s="24">
+        <v>44826</v>
+      </c>
+      <c r="G85" s="25">
+        <v>2218</v>
+      </c>
       <c r="H85" s="21">
         <f t="shared" si="0"/>
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>44825</v>
       </c>
@@ -17612,14 +17652,18 @@
       <c r="E86" s="23">
         <v>12549</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
+      <c r="F86" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G86" s="25">
+        <v>12549</v>
+      </c>
       <c r="H86" s="21">
         <f t="shared" si="0"/>
-        <v>12549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>44825</v>
       </c>
@@ -17634,14 +17678,18 @@
       <c r="E87" s="23">
         <v>1691</v>
       </c>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
+      <c r="F87" s="24">
+        <v>44827</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1691</v>
+      </c>
       <c r="H87" s="21">
         <f t="shared" si="0"/>
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>44825</v>
       </c>
@@ -17656,283 +17704,1072 @@
       <c r="E88" s="23">
         <v>6779</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
+      <c r="F88" s="24">
+        <v>44826</v>
+      </c>
+      <c r="G88" s="25">
+        <v>6779</v>
+      </c>
       <c r="H88" s="21">
         <f t="shared" si="0"/>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
+        <v>44826</v>
+      </c>
       <c r="B89" s="15">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
+      <c r="D89" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="23">
+        <v>6861</v>
+      </c>
+      <c r="F89" s="24">
+        <v>44827</v>
+      </c>
+      <c r="G89" s="25">
+        <v>6861</v>
+      </c>
       <c r="H89" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
+        <v>44826</v>
+      </c>
       <c r="B90" s="15">
         <f t="shared" si="2"/>
         <v>571</v>
       </c>
       <c r="C90" s="29"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="23">
+        <v>4614</v>
+      </c>
+      <c r="F90" s="24">
+        <v>44827</v>
+      </c>
+      <c r="G90" s="25">
+        <v>4614</v>
+      </c>
       <c r="H90" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+    <row r="91" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
+        <v>44827</v>
+      </c>
       <c r="B91" s="15">
         <f t="shared" si="2"/>
         <v>572</v>
       </c>
       <c r="C91" s="29"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
+      <c r="D91" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="23">
+        <v>2351</v>
+      </c>
+      <c r="F91" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="25">
+        <f>1001+1350</f>
+        <v>2351</v>
+      </c>
       <c r="H91" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="15"/>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26">
+        <v>44827</v>
+      </c>
+      <c r="B92" s="15">
+        <f t="shared" si="2"/>
+        <v>573</v>
+      </c>
       <c r="C92" s="29"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25"/>
+      <c r="D92" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="23">
+        <v>750</v>
+      </c>
+      <c r="F92" s="24">
+        <v>44830</v>
+      </c>
+      <c r="G92" s="25">
+        <v>750</v>
+      </c>
       <c r="H92" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39">
-        <v>0</v>
-      </c>
-      <c r="F93" s="40"/>
-      <c r="G93" s="41"/>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="26">
+        <v>44827</v>
+      </c>
+      <c r="B93" s="15">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="23">
+        <v>18330</v>
+      </c>
+      <c r="F93" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G93" s="25">
+        <v>12942</v>
+      </c>
       <c r="H93" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="45">
-        <f>SUM(E4:E93)</f>
-        <v>548660</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45">
-        <f>SUM(G4:G93)</f>
-        <v>496533</v>
-      </c>
-      <c r="H94" s="46">
-        <f>SUM(H4:H93)</f>
-        <v>52127</v>
-      </c>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="43"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="43"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="51" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26">
+        <v>44827</v>
+      </c>
+      <c r="B94" s="15">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="23">
+        <v>6950</v>
+      </c>
+      <c r="F94" s="24">
+        <v>44828</v>
+      </c>
+      <c r="G94" s="25">
+        <v>6950</v>
+      </c>
+      <c r="H94" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26">
+        <v>44827</v>
+      </c>
+      <c r="B95" s="15">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="23">
+        <v>6631</v>
+      </c>
+      <c r="F95" s="24">
+        <v>44830</v>
+      </c>
+      <c r="G95" s="25">
+        <v>6631</v>
+      </c>
+      <c r="H95" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26">
+        <v>44827</v>
+      </c>
+      <c r="B96" s="15">
+        <f t="shared" si="2"/>
+        <v>577</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="23">
+        <v>3015</v>
+      </c>
+      <c r="F96" s="24">
+        <v>44828</v>
+      </c>
+      <c r="G96" s="25">
+        <v>3015</v>
+      </c>
+      <c r="H96" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
+        <v>44828</v>
+      </c>
+      <c r="B97" s="15">
+        <f t="shared" si="2"/>
+        <v>578</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="23">
+        <v>3549</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" s="25">
+        <f>2500+1049</f>
+        <v>3549</v>
+      </c>
+      <c r="H97" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
+        <v>44828</v>
+      </c>
+      <c r="B98" s="15">
+        <f t="shared" si="2"/>
+        <v>579</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="23">
+        <v>14756</v>
+      </c>
+      <c r="F98" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="25">
+        <f>2663</f>
+        <v>2663</v>
+      </c>
+      <c r="H98" s="21">
+        <f t="shared" si="0"/>
+        <v>12093</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
+        <v>44828</v>
+      </c>
+      <c r="B99" s="15">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="23">
+        <v>5564</v>
+      </c>
+      <c r="F99" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G99" s="25">
+        <v>5564</v>
+      </c>
+      <c r="H99" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26">
+        <v>44828</v>
+      </c>
+      <c r="B100" s="15">
+        <f t="shared" si="2"/>
+        <v>581</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="23">
+        <v>2112</v>
+      </c>
+      <c r="F100" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G100" s="25">
+        <v>2112</v>
+      </c>
+      <c r="H100" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26">
+        <v>44828</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="23">
+        <v>15413</v>
+      </c>
+      <c r="F101" s="24">
+        <v>44829</v>
+      </c>
+      <c r="G101" s="25">
+        <v>15413</v>
+      </c>
+      <c r="H101" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
+        <v>44829</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="2"/>
+        <v>583</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="23">
+        <v>4404</v>
+      </c>
+      <c r="F102" s="24">
+        <v>44830</v>
+      </c>
+      <c r="G102" s="25">
+        <v>4404</v>
+      </c>
+      <c r="H102" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
+        <v>44829</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="2"/>
+        <v>584</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="23">
+        <v>7148</v>
+      </c>
+      <c r="F103" s="24">
+        <v>44830</v>
+      </c>
+      <c r="G103" s="25">
+        <v>7148</v>
+      </c>
+      <c r="H103" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
+        <v>44830</v>
+      </c>
+      <c r="B104" s="15">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="23">
+        <v>3304</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" s="25">
+        <f>2900</f>
+        <v>2900</v>
+      </c>
+      <c r="H104" s="21">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26">
+        <v>44830</v>
+      </c>
+      <c r="B105" s="15">
+        <f t="shared" si="2"/>
+        <v>586</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="23">
+        <v>6649</v>
+      </c>
+      <c r="F105" s="24">
+        <v>44831</v>
+      </c>
+      <c r="G105" s="25">
+        <v>6649</v>
+      </c>
+      <c r="H105" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26">
+        <v>44830</v>
+      </c>
+      <c r="B106" s="15">
+        <f t="shared" si="2"/>
+        <v>587</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="23">
+        <v>9700</v>
+      </c>
+      <c r="F106" s="24">
+        <v>44831</v>
+      </c>
+      <c r="G106" s="25">
+        <v>9700</v>
+      </c>
+      <c r="H106" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26">
+        <v>44830</v>
+      </c>
+      <c r="B107" s="15">
+        <f t="shared" si="2"/>
+        <v>588</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="23">
+        <v>4337</v>
+      </c>
+      <c r="F107" s="24">
+        <v>44831</v>
+      </c>
+      <c r="G107" s="25">
+        <v>4337</v>
+      </c>
+      <c r="H107" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B108" s="15">
+        <f t="shared" si="2"/>
+        <v>589</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="23">
+        <v>2806</v>
+      </c>
+      <c r="F108" s="24"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="21">
+        <f t="shared" si="0"/>
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B109" s="15">
+        <f t="shared" si="2"/>
+        <v>590</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="23">
+        <v>12396</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="21">
+        <f t="shared" si="0"/>
+        <v>12396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B110" s="15">
+        <f t="shared" si="2"/>
+        <v>591</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="23">
+        <v>5788</v>
+      </c>
+      <c r="F110" s="24"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="21">
+        <f t="shared" si="0"/>
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B111" s="15">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="23">
+        <v>7646</v>
+      </c>
+      <c r="F111" s="24"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="21">
+        <f t="shared" si="0"/>
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B112" s="15">
+        <f t="shared" si="2"/>
+        <v>593</v>
+      </c>
+      <c r="C112" s="29"/>
+      <c r="D112" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="23">
+        <v>4037</v>
+      </c>
+      <c r="F112" s="24"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="21">
+        <f t="shared" si="0"/>
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26">
+        <v>44831</v>
+      </c>
+      <c r="B113" s="15">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="23">
+        <v>612</v>
+      </c>
+      <c r="F113" s="24"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="21">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="15">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="15">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="C115" s="29"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="15">
+        <f t="shared" si="2"/>
+        <v>597</v>
+      </c>
+      <c r="C116" s="29"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="15">
+        <f t="shared" si="2"/>
+        <v>598</v>
+      </c>
+      <c r="C117" s="29"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="15">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
+      <c r="C118" s="29"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26"/>
+      <c r="B119" s="15">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="C119" s="29"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="26"/>
+      <c r="B120" s="15">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+      <c r="C120" s="29"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="15">
+        <f t="shared" si="2"/>
+        <v>602</v>
+      </c>
+      <c r="C121" s="29"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="15">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="C122" s="29"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="26"/>
+      <c r="B123" s="15">
+        <f t="shared" si="2"/>
+        <v>604</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26"/>
+      <c r="B124" s="15">
+        <f t="shared" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="C124" s="29"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="35"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="39">
+        <v>0</v>
+      </c>
+      <c r="F128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="45">
+        <f>SUM(E4:E128)</f>
+        <v>708383</v>
+      </c>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45">
+        <f>SUM(G4:G128)</f>
+        <v>657213</v>
+      </c>
+      <c r="H129" s="46">
+        <f>SUM(H4:H128)</f>
+        <v>51170</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="48"/>
-      <c r="G96" s="52" t="s">
+      <c r="F131" s="48"/>
+      <c r="G131" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="50"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="43"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="43"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="76">
-        <f>E94-G94</f>
-        <v>52127</v>
-      </c>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="43"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="49"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="79" t="s">
+      <c r="H131" s="50"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="43"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="77">
+        <f>E129-G129</f>
+        <v>51170</v>
+      </c>
+      <c r="F133" s="78"/>
+      <c r="G133" s="79"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="43"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="49"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B135" s="43"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="43"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="49"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="54"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="49"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="43"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="49"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="49"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="49"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="43"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="49"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="43"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="49"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="49"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="43"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="49"/>
-      <c r="I111" s="2"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="43"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="49"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="26"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="54"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="43"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="49"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="43"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="49"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="43"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="49"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="43"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="49"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="49"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="43"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="49"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="43"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="49"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="43"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="49"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="43"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="49"/>
+      <c r="I146" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="E135:G135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="  REMISIONES   JULIO    2022   " sheetId="7" r:id="rId7"/>
     <sheet name="REMISIONES    AGOSTO    2022" sheetId="8" r:id="rId8"/>
     <sheet name="REMISIONES  SEPTIEMBRE 2022    " sheetId="9" r:id="rId9"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="12" r:id="rId11"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="89">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -346,7 +348,16 @@
     <t>25-Sept-22--27-Sept-22</t>
   </si>
   <si>
-    <t>27-Sept-22----</t>
+    <t>27-Sept-22--28-Sept-22</t>
+  </si>
+  <si>
+    <t>25-Sept-22--30-Sept-22</t>
+  </si>
+  <si>
+    <t>27-Sept-22--29-Sept-22--30-Sept-22</t>
+  </si>
+  <si>
+    <t>29-Sept-22--30-Sept-22</t>
   </si>
 </sst>
 </file>
@@ -1845,13 +1856,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1898,13 +1909,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3156,6 +3167,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B24:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -15422,10 +15459,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15513,7 +15550,7 @@
         <v>2345</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H128" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H138" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -17221,7 +17258,7 @@
         <v>44820</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B126" si="2">B69+1</f>
+        <f t="shared" ref="B70:B133" si="2">B69+1</f>
         <v>551</v>
       </c>
       <c r="C70" s="29"/>
@@ -17820,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>44827</v>
       </c>
@@ -17835,15 +17872,16 @@
       <c r="E93" s="23">
         <v>18330</v>
       </c>
-      <c r="F93" s="24">
-        <v>44829</v>
+      <c r="F93" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="G93" s="25">
-        <v>12942</v>
+        <f>12942+5388</f>
+        <v>18330</v>
       </c>
       <c r="H93" s="21">
         <f t="shared" si="0"/>
-        <v>5388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17951,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>44828</v>
       </c>
@@ -17967,15 +18005,15 @@
         <v>14756</v>
       </c>
       <c r="F98" s="64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G98" s="25">
-        <f>2663</f>
-        <v>2663</v>
+        <f>2663+4400+7693</f>
+        <v>14756</v>
       </c>
       <c r="H98" s="21">
         <f t="shared" si="0"/>
-        <v>12093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18108,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <v>44830</v>
       </c>
@@ -18123,16 +18161,16 @@
       <c r="E104" s="23">
         <v>3304</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F104" s="64" t="s">
         <v>85</v>
       </c>
       <c r="G104" s="25">
-        <f>2900</f>
-        <v>2900</v>
+        <f>2900+404</f>
+        <v>3304</v>
       </c>
       <c r="H104" s="21">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18228,11 +18266,15 @@
       <c r="E108" s="23">
         <v>2806</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="25"/>
+      <c r="F108" s="24">
+        <v>44832</v>
+      </c>
+      <c r="G108" s="25">
+        <v>2806</v>
+      </c>
       <c r="H108" s="21">
         <f t="shared" si="0"/>
-        <v>2806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18250,11 +18292,15 @@
       <c r="E109" s="23">
         <v>12396</v>
       </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="25"/>
+      <c r="F109" s="24">
+        <v>44835</v>
+      </c>
+      <c r="G109" s="25">
+        <v>6500</v>
+      </c>
       <c r="H109" s="21">
         <f t="shared" si="0"/>
-        <v>12396</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18272,11 +18318,15 @@
       <c r="E110" s="23">
         <v>5788</v>
       </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="25"/>
+      <c r="F110" s="24">
+        <v>44832</v>
+      </c>
+      <c r="G110" s="25">
+        <v>5788</v>
+      </c>
       <c r="H110" s="21">
         <f t="shared" si="0"/>
-        <v>5788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18294,11 +18344,15 @@
       <c r="E111" s="23">
         <v>7646</v>
       </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="25"/>
+      <c r="F111" s="24">
+        <v>44832</v>
+      </c>
+      <c r="G111" s="25">
+        <v>7646</v>
+      </c>
       <c r="H111" s="21">
         <f t="shared" si="0"/>
-        <v>7646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18316,14 +18370,18 @@
       <c r="E112" s="23">
         <v>4037</v>
       </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="25"/>
+      <c r="F112" s="24">
+        <v>44833</v>
+      </c>
+      <c r="G112" s="25">
+        <v>4037</v>
+      </c>
       <c r="H112" s="21">
         <f t="shared" si="0"/>
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>44831</v>
       </c>
@@ -18338,364 +18396,569 @@
       <c r="E113" s="23">
         <v>612</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="25"/>
+      <c r="F113" s="24">
+        <v>44832</v>
+      </c>
+      <c r="G113" s="25">
+        <v>612</v>
+      </c>
       <c r="H113" s="21">
         <f t="shared" si="0"/>
-        <v>612</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26">
+        <v>44832</v>
+      </c>
       <c r="B114" s="15">
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="C114" s="29"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="25"/>
+      <c r="D114" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="23">
+        <v>2453</v>
+      </c>
+      <c r="F114" s="24">
+        <v>44833</v>
+      </c>
+      <c r="G114" s="25">
+        <v>2453</v>
+      </c>
       <c r="H114" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <v>44832</v>
+      </c>
       <c r="B115" s="15">
         <f t="shared" si="2"/>
         <v>596</v>
       </c>
       <c r="C115" s="29"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="25"/>
+      <c r="D115" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="23">
+        <v>5794</v>
+      </c>
+      <c r="F115" s="24">
+        <v>44832</v>
+      </c>
+      <c r="G115" s="25">
+        <v>5794</v>
+      </c>
       <c r="H115" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
+        <v>44832</v>
+      </c>
       <c r="B116" s="15">
         <f t="shared" si="2"/>
         <v>597</v>
       </c>
       <c r="C116" s="29"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="25"/>
+      <c r="D116" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="23">
+        <v>5871</v>
+      </c>
+      <c r="F116" s="24">
+        <v>44833</v>
+      </c>
+      <c r="G116" s="25">
+        <v>5871</v>
+      </c>
       <c r="H116" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
+        <v>44833</v>
+      </c>
       <c r="B117" s="15">
         <f t="shared" si="2"/>
         <v>598</v>
       </c>
       <c r="C117" s="29"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="25"/>
+      <c r="D117" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="23">
+        <v>4338</v>
+      </c>
+      <c r="F117" s="24">
+        <v>44834</v>
+      </c>
+      <c r="G117" s="25">
+        <v>4338</v>
+      </c>
       <c r="H117" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26">
+        <v>44833</v>
+      </c>
       <c r="B118" s="15">
         <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="C118" s="29"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="25"/>
+      <c r="D118" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="23">
+        <v>6606</v>
+      </c>
+      <c r="F118" s="24">
+        <v>44834</v>
+      </c>
+      <c r="G118" s="25">
+        <v>6606</v>
+      </c>
       <c r="H118" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
+        <v>44833</v>
+      </c>
       <c r="B119" s="15">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="C119" s="29"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="25"/>
+      <c r="D119" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="23">
+        <v>307</v>
+      </c>
+      <c r="F119" s="24">
+        <v>44834</v>
+      </c>
+      <c r="G119" s="25">
+        <v>307</v>
+      </c>
       <c r="H119" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
+    <row r="120" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="26">
+        <v>44833</v>
+      </c>
       <c r="B120" s="15">
         <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="C120" s="29"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="25"/>
+      <c r="D120" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="23">
+        <v>7960</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" s="25">
+        <f>7000+960</f>
+        <v>7960</v>
+      </c>
       <c r="H120" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26">
+        <v>44833</v>
+      </c>
       <c r="B121" s="15">
         <f t="shared" si="2"/>
         <v>602</v>
       </c>
       <c r="C121" s="29"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="25"/>
+      <c r="D121" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="23">
+        <v>5694</v>
+      </c>
+      <c r="F121" s="24">
+        <v>44834</v>
+      </c>
+      <c r="G121" s="25">
+        <v>5694</v>
+      </c>
       <c r="H121" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26">
+        <v>44834</v>
+      </c>
       <c r="B122" s="15">
         <f t="shared" si="2"/>
         <v>603</v>
       </c>
       <c r="C122" s="29"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="25"/>
+      <c r="D122" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="23">
+        <v>3051</v>
+      </c>
+      <c r="F122" s="24">
+        <v>44834</v>
+      </c>
+      <c r="G122" s="25">
+        <f>1800</f>
+        <v>1800</v>
+      </c>
       <c r="H122" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="26">
+        <v>44834</v>
+      </c>
       <c r="B123" s="15">
         <f t="shared" si="2"/>
         <v>604</v>
       </c>
       <c r="C123" s="29"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="25"/>
+      <c r="D123" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="23">
+        <v>8254</v>
+      </c>
+      <c r="F123" s="24">
+        <v>44835</v>
+      </c>
+      <c r="G123" s="25">
+        <v>8254</v>
+      </c>
       <c r="H123" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26">
+        <v>44834</v>
+      </c>
       <c r="B124" s="15">
         <f t="shared" si="2"/>
         <v>605</v>
       </c>
       <c r="C124" s="29"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="23"/>
+      <c r="D124" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="23">
+        <v>4207</v>
+      </c>
       <c r="F124" s="24"/>
       <c r="G124" s="25"/>
       <c r="H124" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="15"/>
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26">
+        <v>44834</v>
+      </c>
+      <c r="B125" s="15">
+        <f t="shared" si="2"/>
+        <v>606</v>
+      </c>
       <c r="C125" s="29"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="23"/>
+      <c r="D125" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="23">
+        <v>20060</v>
+      </c>
       <c r="F125" s="24"/>
       <c r="G125" s="25"/>
       <c r="H125" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="15"/>
+        <v>20060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>44834</v>
+      </c>
+      <c r="B126" s="15">
+        <f t="shared" si="2"/>
+        <v>607</v>
+      </c>
       <c r="C126" s="29"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="23"/>
+      <c r="D126" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="23">
+        <v>4091</v>
+      </c>
       <c r="F126" s="24"/>
       <c r="G126" s="25"/>
       <c r="H126" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="15"/>
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
+        <v>44834</v>
+      </c>
+      <c r="B127" s="15">
+        <f t="shared" si="2"/>
+        <v>608</v>
+      </c>
       <c r="C127" s="29"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="23"/>
+      <c r="D127" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="23">
+        <v>3805</v>
+      </c>
       <c r="F127" s="24"/>
       <c r="G127" s="25"/>
       <c r="H127" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="35"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="39">
-        <v>0</v>
-      </c>
-      <c r="F128" s="40"/>
-      <c r="G128" s="41"/>
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26">
+        <v>44835</v>
+      </c>
+      <c r="B128" s="15">
+        <f t="shared" si="2"/>
+        <v>609</v>
+      </c>
+      <c r="C128" s="29"/>
+      <c r="D128" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="23">
+        <v>7310</v>
+      </c>
+      <c r="F128" s="24"/>
+      <c r="G128" s="25"/>
       <c r="H128" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="43"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="45">
-        <f>SUM(E4:E128)</f>
-        <v>708383</v>
-      </c>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45">
-        <f>SUM(G4:G128)</f>
-        <v>657213</v>
-      </c>
-      <c r="H129" s="46">
-        <f>SUM(H4:H128)</f>
-        <v>51170</v>
-      </c>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="43"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="50"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B131" s="43"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="48"/>
-      <c r="G131" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="50"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="43"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="43"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="77">
-        <f>E129-G129</f>
-        <v>51170</v>
-      </c>
-      <c r="F133" s="78"/>
-      <c r="G133" s="79"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="43"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="49"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B135" s="43"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="80"/>
-      <c r="G135" s="80"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="43"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="49"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="15">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="C129" s="29"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="15">
+        <f t="shared" si="2"/>
+        <v>611</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="15">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="C131" s="29"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="15">
+        <f t="shared" si="2"/>
+        <v>613</v>
+      </c>
+      <c r="C132" s="29"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="15">
+        <f t="shared" si="2"/>
+        <v>614</v>
+      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26"/>
+      <c r="B134" s="15">
+        <f t="shared" ref="B134:B138" si="3">B133+1</f>
+        <v>615</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="15">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="15">
+        <f t="shared" si="3"/>
+        <v>617</v>
+      </c>
+      <c r="C136" s="29"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="15">
+        <f t="shared" si="3"/>
+        <v>618</v>
+      </c>
       <c r="C137" s="29"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="54"/>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="43"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="49"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="35"/>
+      <c r="B138" s="15">
+        <f t="shared" si="3"/>
+        <v>619</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="39">
+        <v>0</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B139" s="43"/>
       <c r="C139" s="44"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="49"/>
+      <c r="E139" s="45">
+        <f>SUM(E4:E138)</f>
+        <v>798184</v>
+      </c>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45">
+        <f>SUM(G4:G138)</f>
+        <v>751564</v>
+      </c>
+      <c r="H139" s="46">
+        <f>SUM(H4:H138)</f>
+        <v>46620</v>
+      </c>
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -18705,33 +18968,43 @@
       <c r="E140" s="47"/>
       <c r="F140" s="48"/>
       <c r="G140" s="49"/>
+      <c r="H140" s="50"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B141" s="43"/>
       <c r="C141" s="44"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="47"/>
+      <c r="E141" s="51" t="s">
+        <v>10</v>
+      </c>
       <c r="F141" s="48"/>
-      <c r="G141" s="49"/>
+      <c r="G141" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="50"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="43"/>
       <c r="C142" s="44"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="47"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="48"/>
-      <c r="G142" s="49"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="50"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="49"/>
+      <c r="E143" s="77">
+        <f>E139-G139</f>
+        <v>46620</v>
+      </c>
+      <c r="F143" s="78"/>
+      <c r="G143" s="79"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -18743,16 +19016,18 @@
       <c r="G144" s="49"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="49"/>
+      <c r="E145" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="80"/>
+      <c r="G145" s="80"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="43"/>
       <c r="C146" s="44"/>
       <c r="D146" s="2"/>
@@ -18761,12 +19036,103 @@
       <c r="G146" s="49"/>
       <c r="I146" s="2"/>
     </row>
+    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="26"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="54"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="43"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="49"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="43"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="49"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="43"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="49"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="43"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="49"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="43"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="49"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="49"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="43"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="49"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="43"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="49"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="43"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="49"/>
+      <c r="I156" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="E145:G145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   SEPTIEMBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="90">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>29-Sept-22--30-Sept-22</t>
+  </si>
+  <si>
+    <t>30-Sept-22--2-Oct-22</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,6 +939,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -15461,8 +15465,8 @@
   </sheetPr>
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18298,7 +18302,7 @@
       <c r="G109" s="25">
         <v>6500</v>
       </c>
-      <c r="H109" s="21">
+      <c r="H109" s="81">
         <f t="shared" si="0"/>
         <v>5896</v>
       </c>
@@ -18631,16 +18635,16 @@
       <c r="E122" s="23">
         <v>3051</v>
       </c>
-      <c r="F122" s="24">
-        <v>44834</v>
+      <c r="F122" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="G122" s="25">
-        <f>1800</f>
-        <v>1800</v>
+        <f>1800+1251</f>
+        <v>3051</v>
       </c>
       <c r="H122" s="21">
         <f t="shared" si="0"/>
-        <v>1251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,11 +18688,15 @@
       <c r="E124" s="23">
         <v>4207</v>
       </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="25"/>
+      <c r="F124" s="24">
+        <v>44836</v>
+      </c>
+      <c r="G124" s="25">
+        <v>4207</v>
+      </c>
       <c r="H124" s="21">
         <f t="shared" si="0"/>
-        <v>4207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18706,11 +18714,15 @@
       <c r="E125" s="23">
         <v>20060</v>
       </c>
-      <c r="F125" s="24"/>
-      <c r="G125" s="25"/>
+      <c r="F125" s="24">
+        <v>44836</v>
+      </c>
+      <c r="G125" s="25">
+        <v>20060</v>
+      </c>
       <c r="H125" s="21">
         <f t="shared" si="0"/>
-        <v>20060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18728,11 +18740,15 @@
       <c r="E126" s="23">
         <v>4091</v>
       </c>
-      <c r="F126" s="24"/>
-      <c r="G126" s="25"/>
+      <c r="F126" s="24">
+        <v>44836</v>
+      </c>
+      <c r="G126" s="25">
+        <v>4091</v>
+      </c>
       <c r="H126" s="21">
         <f t="shared" si="0"/>
-        <v>4091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18750,11 +18766,16 @@
       <c r="E127" s="23">
         <v>3805</v>
       </c>
-      <c r="F127" s="24"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="21">
-        <f t="shared" si="0"/>
-        <v>3805</v>
+      <c r="F127" s="24">
+        <v>44836</v>
+      </c>
+      <c r="G127" s="25">
+        <f>1300</f>
+        <v>1300</v>
+      </c>
+      <c r="H127" s="81">
+        <f t="shared" si="0"/>
+        <v>2505</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18772,107 +18793,147 @@
       <c r="E128" s="23">
         <v>7310</v>
       </c>
-      <c r="F128" s="24"/>
-      <c r="G128" s="25"/>
+      <c r="F128" s="24">
+        <v>44836</v>
+      </c>
+      <c r="G128" s="25">
+        <v>7310</v>
+      </c>
       <c r="H128" s="21">
         <f t="shared" si="0"/>
-        <v>7310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
+      <c r="A129" s="26">
+        <v>44836</v>
+      </c>
       <c r="B129" s="15">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="C129" s="29"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="23"/>
+      <c r="D129" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="23">
+        <v>3173</v>
+      </c>
       <c r="F129" s="24"/>
       <c r="G129" s="25"/>
       <c r="H129" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+      <c r="A130" s="26">
+        <v>44836</v>
+      </c>
       <c r="B130" s="15">
         <f t="shared" si="2"/>
         <v>611</v>
       </c>
       <c r="C130" s="29"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="23"/>
+      <c r="D130" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="23">
+        <v>10645</v>
+      </c>
       <c r="F130" s="24"/>
       <c r="G130" s="25"/>
       <c r="H130" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+      <c r="A131" s="26">
+        <v>44836</v>
+      </c>
       <c r="B131" s="15">
         <f t="shared" si="2"/>
         <v>612</v>
       </c>
       <c r="C131" s="29"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="23"/>
+      <c r="D131" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="23">
+        <v>20060</v>
+      </c>
       <c r="F131" s="24"/>
       <c r="G131" s="25"/>
       <c r="H131" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
+      <c r="A132" s="26">
+        <v>44836</v>
+      </c>
       <c r="B132" s="15">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
       <c r="C132" s="29"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="23"/>
+      <c r="D132" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="23">
+        <v>750</v>
+      </c>
       <c r="F132" s="24"/>
       <c r="G132" s="25"/>
       <c r="H132" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
+      <c r="A133" s="26">
+        <v>44836</v>
+      </c>
       <c r="B133" s="15">
         <f t="shared" si="2"/>
         <v>614</v>
       </c>
       <c r="C133" s="29"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="23"/>
+      <c r="D133" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="23">
+        <v>7935</v>
+      </c>
       <c r="F133" s="24"/>
       <c r="G133" s="25"/>
       <c r="H133" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="26">
+        <v>44836</v>
+      </c>
       <c r="B134" s="15">
         <f t="shared" ref="B134:B138" si="3">B133+1</f>
         <v>615</v>
       </c>
       <c r="C134" s="29"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="23"/>
+      <c r="D134" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="23">
+        <v>13871</v>
+      </c>
       <c r="F134" s="24"/>
       <c r="G134" s="25"/>
       <c r="H134" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13871</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18948,16 +19009,16 @@
       <c r="D139" s="2"/>
       <c r="E139" s="45">
         <f>SUM(E4:E138)</f>
-        <v>798184</v>
+        <v>854618</v>
       </c>
       <c r="F139" s="45"/>
       <c r="G139" s="45">
         <f>SUM(G4:G138)</f>
-        <v>751564</v>
+        <v>789783</v>
       </c>
       <c r="H139" s="46">
         <f>SUM(H4:H138)</f>
-        <v>46620</v>
+        <v>64835</v>
       </c>
       <c r="I139" s="2"/>
     </row>
@@ -19001,7 +19062,7 @@
       <c r="D143" s="2"/>
       <c r="E143" s="77">
         <f>E139-G139</f>
-        <v>46620</v>
+        <v>64835</v>
       </c>
       <c r="F143" s="78"/>
       <c r="G143" s="79"/>
